--- a/Adonnai Girma Internship Log.xlsx
+++ b/Adonnai Girma Internship Log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Time In</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Reviewed the use of VM Ware and its logistics.  Also went over abstract hardware, hypervisors, Open Stack, KVM, and Storage Area networks like NetApp and EMC2.</t>
+  </si>
+  <si>
+    <t>Had a meeting with mentor. Interviewed him about his career so that we would have information for our Symposium presentation.</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +519,7 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:D50)</f>
-        <v>1.4291666666666676</v>
+        <v>1.5125000000000011</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -753,14 +756,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42095</v>
+      </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
